--- a/Excel-XLSX/UN-TON.xlsx
+++ b/Excel-XLSX/UN-TON.xlsx
@@ -30,7 +30,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>wa29CC</t>
+    <t>02vplK</t>
   </si>
   <si>
     <t>0</t>

--- a/Excel-XLSX/UN-TON.xlsx
+++ b/Excel-XLSX/UN-TON.xlsx
@@ -30,7 +30,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>02vplK</t>
+    <t>zf3L2S</t>
   </si>
   <si>
     <t>0</t>

--- a/Excel-XLSX/UN-TON.xlsx
+++ b/Excel-XLSX/UN-TON.xlsx
@@ -30,7 +30,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>zf3L2S</t>
+    <t>zIpz3S</t>
   </si>
   <si>
     <t>0</t>
